--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-dosage-medicationrequest.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-dosage-medicationrequest.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$80</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="394">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-dosage-4:For split dosage timing event and dose/rate are required {sequence.exists() implies (timing.repeat.when.exists() and doseAndRate.dose.exists())}ch-dosage-3:Patient instruction/free text dosage instruction, timing or as needed has to be specified {patientInstruction.exists() or timing.exists() or asNeeded.exists()}</t>
+ch-dosage-4:For split dosage timing event and dose/rate are required {sequence.exists() implies (timing.repeat.when.exists() and doseAndRate.dose.exists())}ch-dosage-3:Patient instruction/free text dosage instruction, or timing and dose/rate has to be specified {patientInstruction.exists() or (timing.exists() and doseAndRate.exists())}base-dosage-text:It is a strong recommendation that the base dosage should contain the whole dosage information as narrative, including the information from split dosage elements. {text.exists() and text.trim().length() &gt; 0}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
@@ -374,6 +374,15 @@
     <t>Dosage.text</t>
   </si>
   <si>
+    <t>Narrative representation of the full dosage (including split dosage elements if they exist) information. SHOULD be provided.</t>
+  </si>
+  <si>
+    <t>Narrative representation of the full dosage information, including any split dosage elements if they exist. The aim is to provide the whole content of the dosage (whether structured or not) in a human readable fashion.</t>
+  </si>
+  <si>
+    <t>This field is expected to be always populated.</t>
+  </si>
+  <si>
     <t>Free text dosage instructions can be used for cases where the instructions are too complex to code.  The content of this attribute does not include the name or description of the medication. When coded instructions are present, the free text instructions may still be present for display to humans taking or administering the medication. It is expected that the text instructions will always be populated.  If the dosage.timing attribute is also populated, then the dosage.text should reflect the same information as the timing.  Additional information about administration or preparation of the medication should be included as text.</t>
   </si>
   <si>
@@ -397,7 +406,7 @@
     <t>Supplemental instructions to the patient on how to take the medication  (e.g. "with meals" or"take half to one hour before food") or warnings for the patient about the medication (e.g. "may cause drowsiness" or "avoid exposure of skin to direct sunlight or sunlamps").</t>
   </si>
   <si>
-    <t>Information about administration or preparation of the medication (e.g. "infuse as rapidly as possibly via intraperitoneal port" or "immediately following drug x") should be populated in dosage.text.</t>
+    <t>Any information provided in additionalInstruction SHALL be present in both Dosage.text and Dosage.patientInstruction.</t>
   </si>
   <si>
     <t>Additional instruction is intended to be coded, but where no code exists, the element could include text.  For example, "Swallow with plenty of water" which might or might not be coded.</t>
@@ -479,7 +488,10 @@
     <t>Patient instructions (e.g. 'take with food'), incl. free text dosage instructions (e.g. for complex dosage)</t>
   </si>
   <si>
-    <t>Instructions in terms that are understood by the patient or consumer.</t>
+    <t>Dosage information as free text in terms that are understood by the patient or consumer. Any information that cannot be provided in a structured way, other than in Dosage.additionalInstruction, SHALL be provided here and, OPTIONALLY, coded in additionalInstruction.</t>
+  </si>
+  <si>
+    <t>Any information provided in patientInstruction SHALL be present in Dosage.text and, optionally, in Dosage.additionalInstruction.</t>
   </si>
   <si>
     <t>Dosage.timing</t>
@@ -823,7 +835,7 @@
   </si>
   <si>
     <t>Indicates whether the Medication is only taken when needed within a specific dosing schedule (Boolean option), or it indicates the precondition for taking the Medication (CodeableConcept).
-'true' if the medication is 'in reserve'. By default 'true'.</t>
+'true' if the medication is 'in reserve'. By default 'false'.</t>
   </si>
   <si>
     <t>Dosage.site</t>
@@ -872,7 +884,7 @@
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-emed/ValueSet/edqm-routeofadministration</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/edqm-routeofadministration</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1036,10 +1048,7 @@
     <t>A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
   </si>
   <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/edqm-administrationmethod</t>
   </si>
   <si>
     <t>.doseQuantity</t>
@@ -1057,6 +1066,27 @@
     <t>Dosage.method.coding</t>
   </si>
   <si>
+    <t>Dosage.method.coding.id</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.extension</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.system</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.version</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.code</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.display</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.userSelected</t>
+  </si>
+  <si>
     <t>Dosage.method.text</t>
   </si>
   <si>
@@ -1096,8 +1126,8 @@
     <t>Dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t>Range {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-range}
-Quantity {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-quantity}</t>
+    <t>Range {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-range-with-emed-units}
+Quantity {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-quantity-with-emed-units}</t>
   </si>
   <si>
     <t>Amount of medication per dose</t>
@@ -1125,29 +1155,6 @@
 </t>
   </si>
   <si>
-    <t>A fixed quantity (no comparator)</t>
-  </si>
-  <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
     <t>Dosage.doseAndRate.dose[x]:doseRange</t>
   </si>
   <si>
@@ -1158,25 +1165,6 @@
 </t>
   </si>
   <si>
-    <t>Set of values bounded by low and high</t>
-  </si>
-  <si>
-    <t>A set of ordered Quantities defined by a low and high limit.</t>
-  </si>
-  <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
-  </si>
-  <si>
     <t>Dosage.doseAndRate.rate[x]</t>
   </si>
   <si>
@@ -1184,38 +1172,63 @@
 </t>
   </si>
   <si>
-    <t>A ratio of two Quantity values - a numerator and a denominator</t>
-  </si>
-  <si>
-    <t>A relationship of two Quantity values - expressed as a numerator and a denominator.</t>
-  </si>
-  <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
+    <t>Amount of medication per unit of time</t>
+  </si>
+  <si>
+    <t>Amount of medication per unit of time.</t>
+  </si>
+  <si>
+    <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.++It is possible to specify a rate over time (for example, 100 ml/hour) using either the rateRatio and rateQuantity.  The rateQuantity approach requires systems to have the capability to parse UCUM grammer where ml/hour is included rather than a specific ratio where the time is specified as the denominator.  Where a rate such as 500ml over 2 hours is specified, the use of rateRatio may be more semantically correct than specifying using a rateQuantity of 250 mg/hour.</t>
   </si>
   <si>
     <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t>.rateQuantity</t>
+  </si>
+  <si>
+    <t>RXE22, RXE23, RXE-24</t>
   </si>
   <si>
     <t>Dosage.maxDosePerPeriod</t>
   </si>
   <si>
+    <t>Upper limit on medication per unit of time</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per unit of time.</t>
+  </si>
+  <si>
+    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example "2 tablets every 4 hours to a maximum of 8/day".</t>
+  </si>
+  <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
   </si>
   <si>
+    <t>.maxDoseQuantity</t>
+  </si>
+  <si>
+    <t>RXO-23, RXE-19</t>
+  </si>
+  <si>
     <t>Dosage.maxDosePerAdministration</t>
   </si>
   <si>
+    <t>Upper limit on medication per administration</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per administration.</t>
+  </si>
+  <si>
+    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example, a body surface area related dose with a maximum amount, such as 1.5 mg/m2 (maximum 2 mg) IV over 5 – 10 minutes would have doseQuantity of 1.5 mg/m2 and maxDosePerAdministration of 2 mg.</t>
+  </si>
+  <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
+  </si>
+  <si>
+    <t>not supported</t>
   </si>
   <si>
     <t>Dosage.maxDosePerLifetime</t>
@@ -1543,7 +1556,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL73"/>
+  <dimension ref="A1:AL80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1552,17 +1565,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.55859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.7265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.93359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.0" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.62890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1571,24 +1584,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="103.6484375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.6796875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="108.0234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.33203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="122.4609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="43.81640625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="128.11328125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2260,7 +2273,7 @@
         <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>76</v>
@@ -2272,14 +2285,16 @@
         <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N7" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P7" t="s" s="2">
         <v>76</v>
@@ -2340,21 +2355,21 @@
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>112</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2377,19 +2392,19 @@
         <v>101</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P8" t="s" s="2">
         <v>76</v>
@@ -2414,13 +2429,13 @@
         <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AA8" t="s" s="2">
         <v>76</v>
@@ -2438,7 +2453,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2450,21 +2465,21 @@
         <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>112</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2567,10 +2582,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2673,10 +2688,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2699,19 +2714,19 @@
         <v>101</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -2760,7 +2775,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2772,21 +2787,21 @@
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2812,16 +2827,16 @@
         <v>86</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>76</v>
@@ -2870,7 +2885,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2882,21 +2897,21 @@
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2922,12 +2937,14 @@
         <v>86</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>76</v>
@@ -2976,7 +2993,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2988,21 +3005,21 @@
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>112</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3025,19 +3042,19 @@
         <v>101</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -3086,7 +3103,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3098,10 +3115,10 @@
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>76</v>
@@ -3109,10 +3126,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3215,10 +3232,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3321,10 +3338,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3429,10 +3446,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3455,7 +3472,7 @@
         <v>101</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>93</v>
@@ -3465,7 +3482,7 @@
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3514,7 +3531,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3526,10 +3543,10 @@
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3537,10 +3554,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3563,17 +3580,17 @@
         <v>101</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3622,7 +3639,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3634,10 +3651,10 @@
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3645,10 +3662,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3751,10 +3768,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3857,10 +3874,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3883,13 +3900,13 @@
         <v>101</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3928,17 +3945,17 @@
         <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3950,10 +3967,10 @@
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -3961,13 +3978,13 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>76</v>
@@ -3989,13 +4006,13 @@
         <v>101</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4046,7 +4063,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4058,10 +4075,10 @@
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4069,10 +4086,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4095,7 +4112,7 @@
         <v>101</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>93</v>
@@ -4104,10 +4121,10 @@
         <v>94</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4156,7 +4173,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4168,10 +4185,10 @@
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4179,10 +4196,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4205,7 +4222,7 @@
         <v>101</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>93</v>
@@ -4262,7 +4279,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4274,10 +4291,10 @@
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4285,10 +4302,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4311,7 +4328,7 @@
         <v>101</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>93</v>
@@ -4320,10 +4337,10 @@
         <v>94</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4372,7 +4389,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4384,10 +4401,10 @@
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4395,10 +4412,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4421,7 +4438,7 @@
         <v>101</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>93</v>
@@ -4430,10 +4447,10 @@
         <v>94</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4482,7 +4499,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4494,10 +4511,10 @@
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4505,10 +4522,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4531,7 +4548,7 @@
         <v>101</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>93</v>
@@ -4564,13 +4581,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4588,7 +4605,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4600,10 +4617,10 @@
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4611,10 +4628,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4637,7 +4654,7 @@
         <v>101</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>93</v>
@@ -4651,7 +4668,7 @@
         <v>76</v>
       </c>
       <c r="Q29" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>76</v>
@@ -4696,7 +4713,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4708,10 +4725,10 @@
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4719,10 +4736,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4745,7 +4762,7 @@
         <v>101</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>93</v>
@@ -4802,7 +4819,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4814,10 +4831,10 @@
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4825,10 +4842,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4851,7 +4868,7 @@
         <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>93</v>
@@ -4908,7 +4925,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4920,10 +4937,10 @@
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4931,10 +4948,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4957,7 +4974,7 @@
         <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>93</v>
@@ -5014,7 +5031,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5026,10 +5043,10 @@
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -5037,10 +5054,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5063,7 +5080,7 @@
         <v>101</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>93</v>
@@ -5096,13 +5113,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5120,7 +5137,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5132,10 +5149,10 @@
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5143,10 +5160,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5169,7 +5186,7 @@
         <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>93</v>
@@ -5178,7 +5195,7 @@
         <v>94</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5204,11 +5221,11 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -5226,7 +5243,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5238,7 +5255,7 @@
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>90</v>
@@ -5249,10 +5266,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5275,7 +5292,7 @@
         <v>101</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>93</v>
@@ -5284,7 +5301,7 @@
         <v>94</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5334,7 +5351,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5346,7 +5363,7 @@
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>90</v>
@@ -5357,10 +5374,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5383,19 +5400,19 @@
         <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5420,13 +5437,13 @@
         <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
@@ -5444,7 +5461,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5456,10 +5473,10 @@
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5467,10 +5484,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5493,7 +5510,7 @@
         <v>101</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>93</v>
@@ -5550,7 +5567,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5562,10 +5579,10 @@
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5573,10 +5590,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5599,7 +5616,7 @@
         <v>101</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>93</v>
@@ -5608,7 +5625,7 @@
         <v>94</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5634,13 +5651,13 @@
         <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>76</v>
@@ -5658,7 +5675,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5670,10 +5687,10 @@
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5681,10 +5698,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5707,16 +5724,16 @@
         <v>101</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5754,17 +5771,17 @@
         <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5776,24 +5793,24 @@
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>76</v>
@@ -5815,16 +5832,16 @@
         <v>101</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5874,7 +5891,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5886,21 +5903,21 @@
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5923,7 +5940,7 @@
         <v>101</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>93</v>
@@ -5932,10 +5949,10 @@
         <v>94</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -5960,32 +5977,32 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Z41" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AA41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
@@ -5996,21 +6013,21 @@
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6113,10 +6130,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6219,10 +6236,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6245,19 +6262,19 @@
         <v>101</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6306,7 +6323,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6318,21 +6335,21 @@
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6358,16 +6375,16 @@
         <v>86</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -6416,7 +6433,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6428,21 +6445,21 @@
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6465,17 +6482,17 @@
         <v>101</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -6500,30 +6517,30 @@
         <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AA46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>271</v>
-      </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
@@ -6534,21 +6551,21 @@
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6651,10 +6668,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6757,10 +6774,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6783,19 +6800,19 @@
         <v>101</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -6844,7 +6861,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -6856,21 +6873,21 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6973,14 +6990,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7002,13 +7019,13 @@
         <v>92</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7081,10 +7098,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7107,19 +7124,19 @@
         <v>101</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7168,7 +7185,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7180,21 +7197,21 @@
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7220,13 +7237,13 @@
         <v>86</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7276,7 +7293,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7288,21 +7305,21 @@
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7325,17 +7342,17 @@
         <v>101</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7384,7 +7401,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7396,21 +7413,21 @@
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7436,14 +7453,14 @@
         <v>86</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -7492,7 +7509,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -7504,21 +7521,21 @@
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7541,19 +7558,19 @@
         <v>101</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -7602,7 +7619,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -7614,21 +7631,21 @@
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7654,16 +7671,16 @@
         <v>86</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -7712,7 +7729,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -7724,21 +7741,21 @@
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7761,7 +7778,7 @@
         <v>101</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>93</v>
@@ -7770,10 +7787,10 @@
         <v>94</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -7798,32 +7815,30 @@
         <v>76</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF58" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AA58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>326</v>
-      </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
@@ -7834,21 +7849,21 @@
         <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7951,10 +7966,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8057,10 +8072,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8068,7 +8083,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>78</v>
@@ -8083,19 +8098,19 @@
         <v>101</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>76</v>
@@ -8144,7 +8159,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8156,21 +8171,21 @@
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8178,7 +8193,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>85</v>
@@ -8190,23 +8205,19 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>86</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>76</v>
       </c>
@@ -8254,7 +8265,7 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -8266,32 +8277,32 @@
         <v>76</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
@@ -8300,18 +8311,20 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>76</v>
@@ -8348,19 +8361,19 @@
         <v>76</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>337</v>
+        <v>98</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -8372,13 +8385,13 @@
         <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>340</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" hidden="true">
@@ -8394,7 +8407,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>85</v>
@@ -8406,19 +8419,23 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>86</v>
+        <v>292</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>87</v>
+        <v>293</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>76</v>
       </c>
@@ -8466,7 +8483,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>89</v>
+        <v>297</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -8478,13 +8495,13 @@
         <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>90</v>
+        <v>298</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>76</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65" hidden="true">
@@ -8496,14 +8513,14 @@
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
@@ -8512,19 +8529,19 @@
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -8562,37 +8579,37 @@
         <v>76</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>98</v>
+        <v>304</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>90</v>
+        <v>305</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66" hidden="true">
@@ -8608,7 +8625,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>85</v>
@@ -8623,17 +8640,17 @@
         <v>101</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>93</v>
+        <v>308</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>94</v>
+        <v>309</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>76</v>
@@ -8658,13 +8675,13 @@
         <v>76</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>345</v>
+        <v>76</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>346</v>
+        <v>76</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>76</v>
@@ -8682,7 +8699,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -8694,21 +8711,21 @@
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>347</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8722,7 +8739,7 @@
         <v>85</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>76</v>
@@ -8731,19 +8748,17 @@
         <v>101</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>349</v>
+        <v>86</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>76</v>
@@ -8780,17 +8795,19 @@
         <v>76</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AC67" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -8802,25 +8819,23 @@
         <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>354</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
         <v>76</v>
       </c>
@@ -8832,28 +8847,28 @@
         <v>85</v>
       </c>
       <c r="H68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J68" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="I68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K68" t="s" s="2">
-        <v>357</v>
+        <v>254</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>76</v>
@@ -8902,7 +8917,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -8911,61 +8926,59 @@
         <v>85</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>362</v>
+        <v>119</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>364</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J69" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="I69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K69" t="s" s="2">
-        <v>367</v>
+        <v>86</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>368</v>
+        <v>143</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>369</v>
+        <v>144</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>370</v>
+        <v>145</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>353</v>
+        <v>146</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>76</v>
@@ -9014,7 +9027,7 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>348</v>
+        <v>147</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -9023,24 +9036,24 @@
         <v>85</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>371</v>
+        <v>119</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>372</v>
+        <v>148</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>373</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9060,23 +9073,19 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>375</v>
+        <v>170</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>76</v>
       </c>
@@ -9124,33 +9133,33 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>380</v>
+        <v>119</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>381</v>
+        <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>382</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9173,20 +9182,16 @@
         <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>375</v>
+        <v>86</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>376</v>
+        <v>87</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>76</v>
       </c>
@@ -9234,7 +9239,7 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>383</v>
+        <v>89</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -9243,35 +9248,35 @@
         <v>85</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>380</v>
+        <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>381</v>
+        <v>90</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>382</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
@@ -9283,20 +9288,18 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>357</v>
+        <v>92</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>358</v>
+        <v>288</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>359</v>
+        <v>289</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>76</v>
       </c>
@@ -9332,45 +9335,45 @@
         <v>76</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>385</v>
+        <v>98</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>362</v>
+        <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>363</v>
+        <v>90</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>364</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9390,10 +9393,10 @@
         <v>76</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>357</v>
+        <v>122</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>93</v>
@@ -9401,11 +9404,9 @@
       <c r="M73" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="N73" t="s" s="2">
-        <v>360</v>
-      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>76</v>
@@ -9430,13 +9431,13 @@
         <v>76</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>76</v>
+        <v>355</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>76</v>
@@ -9454,29 +9455,799 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AC74" s="2"/>
+      <c r="AD74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AG73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>364</v>
+      <c r="M79" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL73">
+  <autoFilter ref="A1:AL80">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9486,7 +10257,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI79">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-dosage-medicationrequest.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-dosage-medicationrequest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-dosage-4:For split dosage timing event and dose/rate are required {sequence.exists() implies (timing.repeat.when.exists() and doseAndRate.dose.exists())}ch-dosage-3:Patient instruction/free text dosage instruction, or timing and dose/rate has to be specified {patientInstruction.exists() or (timing.exists() and doseAndRate.exists())}base-dosage-text:It is a strong recommendation that the base dosage should contain the whole dosage information as narrative, including the information from split dosage elements. {text.exists() and text.trim().length() &gt; 0}</t>
+ch-dosage-4:For split dosage timing event and dose/rate are REQUIRED {sequence.exists() implies (timing.repeat.when.exists() and doseAndRate.dose.exists())}ch-dosage-3:Patient instruction/free text dosage instruction, or timing and dose/rate has to be specified {patientInstruction.exists() or (timing.exists() and doseAndRate.exists())}base-dosage-text:It is a strong recommendation that the base dosage should contain the whole dosage information as narrative, including the information from split dosage elements. {text.exists() and text.trim().length() &gt; 0}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
@@ -339,7 +339,7 @@
     <t>An Extension</t>
   </si>
   <si>
-    <t>All modifiers SHALL be documented in the profile, in order to be usable.</t>
+    <t>...All modifiers SHALL be documented in the profile, in order to be usable.</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -418,7 +418,7 @@
     <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes|4.0.1</t>
   </si>
   <si>
     <t>RXO-7</t>
@@ -763,7 +763,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-emed-event-timing:For the representation of the time of administration according to the 1-1-1-1 scheme, the values MORN-NOON-EVE-NIGHT are highly recommended. {$this='MORN' or $this='NOON' or $this='EVE' or $this='NIGHT'}only-standard-event-timings:The timing event shall only be 'MORN', 'NOON', 'EVE' or 'NIGHT'. {$this = 'MORN' or $this = 'NOON' or $this = 'EVE' or $this = 'NIGHT'}</t>
+ch-emed-event-timing:For the representation of the time of administration according to the 1-1-1-1 scheme, the values MORN-NOON-EVE-NIGHT SHOULD be used. {$this='MORN' or $this='NOON' or $this='EVE' or $this='NIGHT'}only-standard-event-timings:The timing event shall only be 'MORN', 'NOON', 'EVE' or 'NIGHT'. {$this = 'MORN' or $this = 'NOON' or $this = 'EVE' or $this = 'NIGHT'}</t>
   </si>
   <si>
     <t>EIVL.event</t>
@@ -794,7 +794,7 @@
     <t>Code for a known / defined timing pattern.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/timing-abbreviation</t>
+    <t>http://hl7.org/fhir/ValueSet/timing-abbreviation|4.0.1</t>
   </si>
   <si>
     <t>Timing.code</t>
@@ -850,7 +850,7 @@
     <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/approach-site-codes|4.0.1</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1117,7 +1117,7 @@
     <t>The kind of dose or rate specified.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/dose-rate-type</t>
+    <t>http://hl7.org/fhir/ValueSet/dose-rate-type|4.0.1</t>
   </si>
   <si>
     <t>RXO-21; RXE-23</t>
@@ -1565,17 +1565,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.93359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.62890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.6640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.72265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.11328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="10.83984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="74.0390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1584,24 +1584,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="108.0234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.33203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="92.609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.0078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="128.11328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="109.8359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="39.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2254,7 +2254,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>114</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>150</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>187</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>232</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>284</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>365</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>368</v>
       </c>
@@ -10248,12 +10248,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AL80">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
